--- a/WebAPI/wwwroot/Plantillas/ReplicasLaboratorioExterno.xlsx
+++ b/WebAPI/wwwroot/Plantillas/ReplicasLaboratorioExterno.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\FormatosReplicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\SICA_INFOTEC\WebAPI\wwwroot\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="4824"/>
   </bookViews>
   <sheets>
-    <sheet name="Sitios" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CLAVE SITIO</t>
   </si>
@@ -47,10 +47,6 @@
     <t>ES CORRECTO EL RESULTADO POR REGLAS DE VALIDACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">No.
-ENTREGA </t>
-  </si>
-  <si>
     <t>CLAVE ÚNICA</t>
   </si>
   <si>
@@ -76,6 +72,12 @@
   </si>
   <si>
     <t>FECHA DE RÉPLICA LABORATORIO</t>
+  </si>
+  <si>
+    <t>RESULTADOMUESTREOID</t>
+  </si>
+  <si>
+    <t>No. CARGA</t>
   </si>
 </sst>
 </file>
@@ -453,83 +455,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/WebAPI/wwwroot/Plantillas/ReplicasLaboratorioExterno.xlsx
+++ b/WebAPI/wwwroot/Plantillas/ReplicasLaboratorioExterno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CLAVE SITIO</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>No. CARGA</t>
+  </si>
+  <si>
+    <t>NOMBRE(s) ARCHIVO EVIDENCIA</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,11 +157,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -173,6 +187,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -455,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +499,7 @@
     <col min="17" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -536,6 +553,9 @@
       </c>
       <c r="R1" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
